--- a/target/classes/stress1_sxssf.xlsx
+++ b/target/classes/stress1_sxssf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_JAVA_SPRING_BOOT\Export_Excel\DemoEportReport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99445FA8-836A-4F8E-A1C5-DF6BDBA386C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27950FA7-2EF4-4CF5-ACC3-0B0BD2B00E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{695A3690-2344-4135-BF62-4E818A13A226}"/>
   </bookViews>
@@ -58,7 +58,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="LN2")</t>
+jx:area(lastCell="NT2")</t>
         </r>
       </text>
     </comment>
@@ -82,8 +82,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="employees", var="employee", lastCell="LN2")
-jx:if(condition="employee.payment &gt;= 2000", lastCell="LN2", areas=["A2:LN2","A6:LN6"])</t>
+jx:each(items="employees", var="employee", lastCell="NT2")
+jx:if(condition="employee.payment &gt;= 2000", lastCell="NT2", areas=["A2:NT2","A6:NT6"])</t>
         </r>
       </text>
     </comment>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EAFE2C-433F-4396-8E26-0816AF815D18}">
-  <dimension ref="A1:LN6"/>
+  <dimension ref="A1:NT6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="LL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LT16" sqref="LT16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +934,7 @@
     <col min="436" max="436" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:326" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:384" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1913,8 +1913,182 @@
       <c r="LN1" t="s">
         <v>1</v>
       </c>
+      <c r="LO1" t="s">
+        <v>2</v>
+      </c>
+      <c r="LP1" t="s">
+        <v>3</v>
+      </c>
+      <c r="LQ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="LR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="LS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="LT1" t="s">
+        <v>3</v>
+      </c>
+      <c r="LU1" t="s">
+        <v>0</v>
+      </c>
+      <c r="LV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="LW1" t="s">
+        <v>2</v>
+      </c>
+      <c r="LX1" t="s">
+        <v>3</v>
+      </c>
+      <c r="LY1" t="s">
+        <v>0</v>
+      </c>
+      <c r="LZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MB1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ME1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MF1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MK1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ML1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MM1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MN1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MO1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MQ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MR1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MS1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MU1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MV1" t="s">
+        <v>3</v>
+      </c>
+      <c r="MW1" t="s">
+        <v>0</v>
+      </c>
+      <c r="MX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="MY1" t="s">
+        <v>2</v>
+      </c>
+      <c r="MZ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>0</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>3</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>0</v>
+      </c>
+      <c r="NF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="NG1" t="s">
+        <v>2</v>
+      </c>
+      <c r="NH1" t="s">
+        <v>3</v>
+      </c>
+      <c r="NI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="NJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="NK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="NL1" t="s">
+        <v>3</v>
+      </c>
+      <c r="NM1" t="s">
+        <v>0</v>
+      </c>
+      <c r="NN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="NO1" t="s">
+        <v>2</v>
+      </c>
+      <c r="NP1" t="s">
+        <v>3</v>
+      </c>
+      <c r="NQ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="NR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="NS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="NT1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:326" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:384" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2893,8 +3067,182 @@
       <c r="LN2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="LO2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="LP2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="LQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="LR2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="LS2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="LT2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="LU2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="LV2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="LW2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="LX2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="LY2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="LZ2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MA2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MC2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="MD2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="ME2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MF2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MG2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="MH2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MI2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MJ2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MK2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="ML2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MM2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MN2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="MP2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MQ2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MR2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MS2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="MT2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MU2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MV2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="MW2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="MX2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="MY2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="MZ2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="NA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="NB2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="NC2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="ND2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="NE2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="NF2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="NG2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="NH2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="NI2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="NJ2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="NK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="NL2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="NM2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="NN2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="NO2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="NP2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="NQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="NR2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="NS2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="NT2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:326" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:384" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3872,6 +4220,180 @@
       </c>
       <c r="LN6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="LO6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="LP6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="LQ6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="LR6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="LS6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="LT6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="LU6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="LV6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="LW6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="LX6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="LY6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="LZ6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MA6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MB6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MC6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="MD6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ME6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MF6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MG6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="MH6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MI6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MJ6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MK6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="ML6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MM6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MN6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MO6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="MP6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MQ6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MR6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MS6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="MT6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MU6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MV6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="MW6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="MX6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="MY6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="MZ6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NA6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="NB6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="NC6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="ND6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NE6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="NF6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="NG6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="NH6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NI6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="NJ6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="NK6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="NL6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NM6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="NN6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="NO6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="NP6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="NQ6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="NR6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="NS6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="NT6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/stress1_sxssf.xlsx
+++ b/target/classes/stress1_sxssf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_JAVA_SPRING_BOOT\Export_Excel\DemoEportReport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27950FA7-2EF4-4CF5-ACC3-0B0BD2B00E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFF93D-F691-4240-AAFF-4B54845DBAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{695A3690-2344-4135-BF62-4E818A13A226}"/>
   </bookViews>
@@ -83,7 +83,8 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(items="employees", var="employee", lastCell="NT2")
-jx:if(condition="employee.payment &gt;= 2000", lastCell="NT2", areas=["A2:NT2","A6:NT6"])</t>
+jx:if(condition="employee.payment &gt;3000", lastCell="NT2", areas=["A6:NT6","A2:NT2"])
+jx:if(condition="employee.age &gt;30", lastCell="NT2", areas=["A7:NT7","A2:NT2"])</t>
         </r>
       </text>
     </comment>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -144,7 +145,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,10 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EAFE2C-433F-4396-8E26-0816AF815D18}">
-  <dimension ref="A1:NT6"/>
+  <dimension ref="A1:NT7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4396,6 +4404,1160 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:384" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="CY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="DW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="DX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="DY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="DZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="ED7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ER7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="ES7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="ET7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="EZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="FW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="FX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="FY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="FZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="GW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="GX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="GY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="GZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="HW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="HX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="HY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="HZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="ID7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="IH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="II7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="IL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="IP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="IT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="IW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="IX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="IY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="IZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="JW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="JX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="JY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="JZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KE7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KL7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="KW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="KX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="KY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="KZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LD7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LT7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LU7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LV7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="LW7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="LX7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="LY7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="LZ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MA7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MC7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="MD7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="ME7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MF7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MG7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="MH7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MI7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MJ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MK7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="ML7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MM7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MN7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MO7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="MP7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MQ7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MR7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MS7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="MT7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MU7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MV7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="MW7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="MX7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="MY7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="MZ7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="NA7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="NB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="NC7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="ND7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="NE7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="NF7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="NG7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="NH7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="NI7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="NJ7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="NK7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="NL7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="NM7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="NN7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="NO7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="NP7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="NQ7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="NR7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="NS7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="NT7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/target/classes/stress1_sxssf.xlsx
+++ b/target/classes/stress1_sxssf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_JAVA_SPRING_BOOT\Export_Excel\DemoEportReport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CFF93D-F691-4240-AAFF-4B54845DBAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46826FD3-D01A-4A06-9381-4E4020F3C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{695A3690-2344-4135-BF62-4E818A13A226}"/>
   </bookViews>
@@ -83,8 +83,7 @@
           </rPr>
           <t xml:space="preserve">
 jx:each(items="employees", var="employee", lastCell="NT2")
-jx:if(condition="employee.payment &gt;3000", lastCell="NT2", areas=["A6:NT6","A2:NT2"])
-jx:if(condition="employee.age &gt;30", lastCell="NT2", areas=["A7:NT7","A2:NT2"])</t>
+jx:if(condition="employee.age &gt;30 &amp;&amp; employee.payment &gt;3000", lastCell="NT2", areas=["A7:NT7","A2:NT2"])</t>
         </r>
       </text>
     </comment>
@@ -499,7 +498,7 @@
   <dimension ref="A1:NT7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
